--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2477,28 +2477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1563.358163246818</v>
+        <v>1667.417664438054</v>
       </c>
       <c r="AB2" t="n">
-        <v>2139.055609448765</v>
+        <v>2281.434409759807</v>
       </c>
       <c r="AC2" t="n">
-        <v>1934.907144266378</v>
+        <v>2063.697511705635</v>
       </c>
       <c r="AD2" t="n">
-        <v>1563358.163246818</v>
+        <v>1667417.664438054</v>
       </c>
       <c r="AE2" t="n">
-        <v>2139055.609448765</v>
+        <v>2281434.409759807</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.068480888557905e-06</v>
+        <v>1.806319956069758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.96484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1934907.144266378</v>
+        <v>2063697.511705635</v>
       </c>
     </row>
     <row r="3">
@@ -2583,28 +2583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>750.9516997021093</v>
+        <v>813.3533535835737</v>
       </c>
       <c r="AB3" t="n">
-        <v>1027.485245183244</v>
+        <v>1112.865940990538</v>
       </c>
       <c r="AC3" t="n">
-        <v>929.4234954675533</v>
+        <v>1006.655577499559</v>
       </c>
       <c r="AD3" t="n">
-        <v>750951.6997021093</v>
+        <v>813353.3535835737</v>
       </c>
       <c r="AE3" t="n">
-        <v>1027485.245183244</v>
+        <v>1112865.940990538</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.683016121735826e-06</v>
+        <v>2.845222258660735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>929423.4954675533</v>
+        <v>1006655.577499559</v>
       </c>
     </row>
     <row r="4">
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>593.882152362945</v>
+        <v>646.0399142404208</v>
       </c>
       <c r="AB4" t="n">
-        <v>812.5757610944248</v>
+        <v>883.940311933242</v>
       </c>
       <c r="AC4" t="n">
-        <v>735.0246709128157</v>
+        <v>799.5782891803525</v>
       </c>
       <c r="AD4" t="n">
-        <v>593882.152362945</v>
+        <v>646039.9142404208</v>
       </c>
       <c r="AE4" t="n">
-        <v>812575.7610944249</v>
+        <v>883940.311933242</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.921379605525439e-06</v>
+        <v>3.248187554697618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.54470486111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>735024.6709128157</v>
+        <v>799578.2891803525</v>
       </c>
     </row>
     <row r="5">
@@ -2795,28 +2795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>517.2180769691432</v>
+        <v>569.2904979920473</v>
       </c>
       <c r="AB5" t="n">
-        <v>707.6805909603213</v>
+        <v>778.928374676941</v>
       </c>
       <c r="AC5" t="n">
-        <v>640.1405485950149</v>
+        <v>704.5885438306129</v>
       </c>
       <c r="AD5" t="n">
-        <v>517218.0769691432</v>
+        <v>569290.4979920473</v>
       </c>
       <c r="AE5" t="n">
-        <v>707680.5909603212</v>
+        <v>778928.374676941</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.052465516704685e-06</v>
+        <v>3.469794791531063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.871961805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>640140.548595015</v>
+        <v>704588.5438306129</v>
       </c>
     </row>
     <row r="6">
@@ -2901,28 +2901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.9678942736489</v>
+        <v>527.040315296553</v>
       </c>
       <c r="AB6" t="n">
-        <v>649.8720270498362</v>
+        <v>721.1198107664558</v>
       </c>
       <c r="AC6" t="n">
-        <v>587.8491528893176</v>
+        <v>652.2971481249155</v>
       </c>
       <c r="AD6" t="n">
-        <v>474967.8942736489</v>
+        <v>527040.315296553</v>
       </c>
       <c r="AE6" t="n">
-        <v>649872.0270498362</v>
+        <v>721119.8107664557</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.128652200125102e-06</v>
+        <v>3.598592159947082e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.518229166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>587849.1528893176</v>
+        <v>652297.1481249154</v>
       </c>
     </row>
     <row r="7">
@@ -3007,28 +3007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>470.9322624082303</v>
+        <v>522.8340912305423</v>
       </c>
       <c r="AB7" t="n">
-        <v>644.350297492058</v>
+        <v>715.3646694338305</v>
       </c>
       <c r="AC7" t="n">
-        <v>582.8544094507378</v>
+        <v>647.0912694036845</v>
       </c>
       <c r="AD7" t="n">
-        <v>470932.2624082303</v>
+        <v>522834.0912305423</v>
       </c>
       <c r="AE7" t="n">
-        <v>644350.297492058</v>
+        <v>715364.6694338305</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.138735731754275e-06</v>
+        <v>3.615638870472732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.474826388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>582854.4094507378</v>
+        <v>647091.2694036844</v>
       </c>
     </row>
   </sheetData>
@@ -3304,28 +3304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1084.739093236151</v>
+        <v>1175.383522121748</v>
       </c>
       <c r="AB2" t="n">
-        <v>1484.187882677037</v>
+        <v>1608.211589228283</v>
       </c>
       <c r="AC2" t="n">
-        <v>1342.539074225116</v>
+        <v>1454.726132291476</v>
       </c>
       <c r="AD2" t="n">
-        <v>1084739.093236151</v>
+        <v>1175383.522121748</v>
       </c>
       <c r="AE2" t="n">
-        <v>1484187.882677037</v>
+        <v>1608211.589228283</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.313181291308711e-06</v>
+        <v>2.274155551483463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.96137152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1342539.074225116</v>
+        <v>1454726.132291476</v>
       </c>
     </row>
     <row r="3">
@@ -3410,28 +3410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>595.5823682644391</v>
+        <v>646.0352969922908</v>
       </c>
       <c r="AB3" t="n">
-        <v>814.9020714990809</v>
+        <v>883.9339944106521</v>
       </c>
       <c r="AC3" t="n">
-        <v>737.1289615174485</v>
+        <v>799.5725745932516</v>
       </c>
       <c r="AD3" t="n">
-        <v>595582.3682644391</v>
+        <v>646035.2969922908</v>
       </c>
       <c r="AE3" t="n">
-        <v>814902.0714990809</v>
+        <v>883933.9944106521</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.89047494960175e-06</v>
+        <v>3.273907517592367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.08723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>737128.9615174485</v>
+        <v>799572.5745932516</v>
       </c>
     </row>
     <row r="4">
@@ -3516,28 +3516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.786277905857</v>
+        <v>534.1590032598747</v>
       </c>
       <c r="AB4" t="n">
-        <v>648.2552874061885</v>
+        <v>730.8599136922204</v>
       </c>
       <c r="AC4" t="n">
-        <v>586.3867126081511</v>
+        <v>661.1076692977655</v>
       </c>
       <c r="AD4" t="n">
-        <v>473786.277905857</v>
+        <v>534159.0032598746</v>
       </c>
       <c r="AE4" t="n">
-        <v>648255.2874061884</v>
+        <v>730859.9136922203</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.109048740586718e-06</v>
+        <v>3.652431643291623e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.939236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>586386.7126081511</v>
+        <v>661107.6692977655</v>
       </c>
     </row>
     <row r="5">
@@ -3622,28 +3622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.1971004423889</v>
+        <v>486.6499396616897</v>
       </c>
       <c r="AB5" t="n">
-        <v>596.8241164831999</v>
+        <v>665.8559169252227</v>
       </c>
       <c r="AC5" t="n">
-        <v>539.8640604539509</v>
+        <v>602.3075627485275</v>
       </c>
       <c r="AD5" t="n">
-        <v>436197.100442389</v>
+        <v>486649.9396616897</v>
       </c>
       <c r="AE5" t="n">
-        <v>596824.1164831999</v>
+        <v>665855.9169252227</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.189118414791992e-06</v>
+        <v>3.791095585052419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.574652777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>539864.0604539509</v>
+        <v>602307.5627485275</v>
       </c>
     </row>
     <row r="6">
@@ -3728,28 +3728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>438.048669477952</v>
+        <v>488.5015086972527</v>
       </c>
       <c r="AB6" t="n">
-        <v>599.3575149231181</v>
+        <v>668.3893153651409</v>
       </c>
       <c r="AC6" t="n">
-        <v>542.1556749024103</v>
+        <v>604.5991771969869</v>
       </c>
       <c r="AD6" t="n">
-        <v>438048.6694779521</v>
+        <v>488501.5086972527</v>
       </c>
       <c r="AE6" t="n">
-        <v>599357.5149231181</v>
+        <v>668389.3153651409</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.189021828936498e-06</v>
+        <v>3.790928318536423e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.574652777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>542155.6749024102</v>
+        <v>604599.177196987</v>
       </c>
     </row>
   </sheetData>
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.4387348052549</v>
+        <v>463.0455876269755</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.8438960058099</v>
+        <v>633.5594011208099</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.5086189133489</v>
+        <v>573.0933810840431</v>
       </c>
       <c r="AD2" t="n">
-        <v>408438.7348052548</v>
+        <v>463045.5876269755</v>
       </c>
       <c r="AE2" t="n">
-        <v>558843.8960058099</v>
+        <v>633559.4011208098</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.136654131371256e-06</v>
+        <v>4.043009402557713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.94618055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>505508.6189133489</v>
+        <v>573093.3810840432</v>
       </c>
     </row>
     <row r="3">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.773600208073</v>
+        <v>418.2651769256292</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.0452854152546</v>
+        <v>572.2888676269367</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.3672792282761</v>
+        <v>517.6704213130915</v>
       </c>
       <c r="AD3" t="n">
-        <v>372773.600208073</v>
+        <v>418265.1769256293</v>
       </c>
       <c r="AE3" t="n">
-        <v>510045.2854152546</v>
+        <v>572288.8676269368</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.255207450135866e-06</v>
+        <v>4.26733779311577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.37109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>461367.2792282761</v>
+        <v>517670.4213130915</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.0221061830073</v>
+        <v>659.9166395108215</v>
       </c>
       <c r="AB2" t="n">
-        <v>825.0814491373383</v>
+        <v>902.9270596461164</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.3368336407568</v>
+        <v>816.7529683395778</v>
       </c>
       <c r="AD2" t="n">
-        <v>603022.1061830072</v>
+        <v>659916.6395108214</v>
       </c>
       <c r="AE2" t="n">
-        <v>825081.4491373383</v>
+        <v>902927.0596461163</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.795790838194381e-06</v>
+        <v>3.271540906709819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.4609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>746336.8336407568</v>
+        <v>816752.9683395778</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.4436845145614</v>
+        <v>444.2527874792529</v>
       </c>
       <c r="AB3" t="n">
-        <v>530.1175419618347</v>
+        <v>607.8462628788668</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.5238677816395</v>
+        <v>549.8342686672951</v>
       </c>
       <c r="AD3" t="n">
-        <v>387443.6845145614</v>
+        <v>444252.7874792529</v>
       </c>
       <c r="AE3" t="n">
-        <v>530117.5419618348</v>
+        <v>607846.2628788669</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.251414637584688e-06</v>
+        <v>4.101588519200528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.939236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>479523.8677816395</v>
+        <v>549834.2686672951</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.2607493194221</v>
+        <v>444.0698522841137</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.8672419573139</v>
+        <v>607.595962874346</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.2974560582519</v>
+        <v>549.6078569439074</v>
       </c>
       <c r="AD4" t="n">
-        <v>387260.7493194221</v>
+        <v>444069.8522841136</v>
       </c>
       <c r="AE4" t="n">
-        <v>529867.241957314</v>
+        <v>607595.9628743461</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.257807186931191e-06</v>
+        <v>4.113234355809359e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.911024305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>479297.4560582519</v>
+        <v>549607.8569439074</v>
       </c>
     </row>
   </sheetData>
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.4283584471939</v>
+        <v>409.1589173950261</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.6810045368462</v>
+        <v>559.8292815973484</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.1374139284375</v>
+        <v>506.3999606870283</v>
       </c>
       <c r="AD2" t="n">
-        <v>356428.3584471939</v>
+        <v>409158.9173950261</v>
       </c>
       <c r="AE2" t="n">
-        <v>487681.0045368462</v>
+        <v>559829.2815973484</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.21260291641618e-06</v>
+        <v>4.335988814481276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.97873263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>441137.4139284375</v>
+        <v>506399.9606870284</v>
       </c>
     </row>
   </sheetData>
@@ -5234,28 +5234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1194.717412556981</v>
+        <v>1286.213430112554</v>
       </c>
       <c r="AB2" t="n">
-        <v>1634.665071072814</v>
+        <v>1759.853958811761</v>
       </c>
       <c r="AC2" t="n">
-        <v>1478.654930956461</v>
+        <v>1591.895966953311</v>
       </c>
       <c r="AD2" t="n">
-        <v>1194717.412556981</v>
+        <v>1286213.430112554</v>
       </c>
       <c r="AE2" t="n">
-        <v>1634665.071072815</v>
+        <v>1759853.958811761</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.246347094770223e-06</v>
+        <v>2.144316754311797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1478654.930956461</v>
+        <v>1591895.966953311</v>
       </c>
     </row>
     <row r="3">
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>631.2635108580317</v>
+        <v>692.147157597536</v>
       </c>
       <c r="AB3" t="n">
-        <v>863.7225849365481</v>
+        <v>947.0262764024638</v>
       </c>
       <c r="AC3" t="n">
-        <v>781.2901136724648</v>
+        <v>856.643417742339</v>
       </c>
       <c r="AD3" t="n">
-        <v>631263.5108580317</v>
+        <v>692147.157597536</v>
       </c>
       <c r="AE3" t="n">
-        <v>863722.584936548</v>
+        <v>947026.2764024639</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.834344192011101e-06</v>
+        <v>3.155954710055394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.32378472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>781290.1136724649</v>
+        <v>856643.417742339</v>
       </c>
     </row>
     <row r="4">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.2711802753676</v>
+        <v>562.0644613794275</v>
       </c>
       <c r="AB4" t="n">
-        <v>699.5437845453316</v>
+        <v>769.0413925933181</v>
       </c>
       <c r="AC4" t="n">
-        <v>632.7803075641925</v>
+        <v>695.6451614405845</v>
       </c>
       <c r="AD4" t="n">
-        <v>511271.1802753676</v>
+        <v>562064.4613794275</v>
       </c>
       <c r="AE4" t="n">
-        <v>699543.7845453316</v>
+        <v>769041.392593318</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.059952064092616e-06</v>
+        <v>3.544108814188172e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>632780.3075641926</v>
+        <v>695645.1614405845</v>
       </c>
     </row>
     <row r="5">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>448.3819644923386</v>
+        <v>499.260496942419</v>
       </c>
       <c r="AB5" t="n">
-        <v>613.4959850346039</v>
+        <v>683.1102377352395</v>
       </c>
       <c r="AC5" t="n">
-        <v>554.9447892699234</v>
+        <v>617.9151553970277</v>
       </c>
       <c r="AD5" t="n">
-        <v>448381.9644923386</v>
+        <v>499260.496942419</v>
       </c>
       <c r="AE5" t="n">
-        <v>613495.9850346039</v>
+        <v>683110.2377352394</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.168879411750132e-06</v>
+        <v>3.731516268792797e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.576822916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>554944.7892699233</v>
+        <v>617915.1553970276</v>
       </c>
     </row>
     <row r="6">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>445.3219831483655</v>
+        <v>496.200515598446</v>
       </c>
       <c r="AB6" t="n">
-        <v>609.3091835629306</v>
+        <v>678.9234362635661</v>
       </c>
       <c r="AC6" t="n">
-        <v>551.1575702544939</v>
+        <v>614.1279363815983</v>
       </c>
       <c r="AD6" t="n">
-        <v>445321.9831483655</v>
+        <v>496200.515598446</v>
       </c>
       <c r="AE6" t="n">
-        <v>609309.1835629306</v>
+        <v>678923.4362635661</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.178834107845371e-06</v>
+        <v>3.748643136348932e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.533420138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>551157.5702544939</v>
+        <v>614127.9363815982</v>
       </c>
     </row>
   </sheetData>
@@ -5955,28 +5955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.0424565433131</v>
+        <v>411.7473094408408</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.6259729947116</v>
+        <v>563.3708337862298</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.6104415369911</v>
+        <v>509.6035121056025</v>
       </c>
       <c r="AD2" t="n">
-        <v>360042.4565433131</v>
+        <v>411747.3094408407</v>
       </c>
       <c r="AE2" t="n">
-        <v>492625.9729947115</v>
+        <v>563370.8337862298</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.156773804706798e-06</v>
+        <v>4.323598987597768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.52560763888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>445610.441536991</v>
+        <v>509603.5121056025</v>
       </c>
     </row>
   </sheetData>
@@ -6252,28 +6252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>825.3499835407274</v>
+        <v>893.9644944049115</v>
       </c>
       <c r="AB2" t="n">
-        <v>1129.280259351877</v>
+        <v>1223.161660174834</v>
       </c>
       <c r="AC2" t="n">
-        <v>1021.503336354131</v>
+        <v>1106.424828045919</v>
       </c>
       <c r="AD2" t="n">
-        <v>825349.9835407274</v>
+        <v>893964.4944049115</v>
       </c>
       <c r="AE2" t="n">
-        <v>1129280.259351877</v>
+        <v>1223161.660174834</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531709643842748e-06</v>
+        <v>2.712771595840645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.09939236111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1021503.336354131</v>
+        <v>1106424.828045919</v>
       </c>
     </row>
     <row r="3">
@@ -6358,28 +6358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.7050938627363</v>
+        <v>533.6911012382905</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.1948931025535</v>
+        <v>730.2197095039087</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.9005033047235</v>
+        <v>660.5285652986539</v>
       </c>
       <c r="AD3" t="n">
-        <v>484705.0938627363</v>
+        <v>533691.1012382904</v>
       </c>
       <c r="AE3" t="n">
-        <v>663194.8931025534</v>
+        <v>730219.7095039086</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.071072057410037e-06</v>
+        <v>3.668022508617172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.42751736111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>599900.5033047235</v>
+        <v>660528.5652986539</v>
       </c>
     </row>
     <row r="4">
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.0559086153737</v>
+        <v>460.1271673369484</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.424828674374</v>
+        <v>629.5662897283784</v>
       </c>
       <c r="AC4" t="n">
-        <v>508.7477923938958</v>
+        <v>569.4813666385385</v>
       </c>
       <c r="AD4" t="n">
-        <v>411055.9086153737</v>
+        <v>460127.1673369484</v>
       </c>
       <c r="AE4" t="n">
-        <v>562424.828674374</v>
+        <v>629566.2897283784</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.227009493214454e-06</v>
+        <v>3.944199294654222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>508747.7923938958</v>
+        <v>569481.3666385384</v>
       </c>
     </row>
     <row r="5">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.8377989010103</v>
+        <v>460.909057622585</v>
       </c>
       <c r="AB5" t="n">
-        <v>563.494645457747</v>
+        <v>630.6361065117514</v>
       </c>
       <c r="AC5" t="n">
-        <v>509.7155073649609</v>
+        <v>570.4490816096036</v>
       </c>
       <c r="AD5" t="n">
-        <v>411837.7989010102</v>
+        <v>460909.057622585</v>
       </c>
       <c r="AE5" t="n">
-        <v>563494.6454577469</v>
+        <v>630636.1065117514</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.230591974190177e-06</v>
+        <v>3.950544134665284e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.680989583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>509715.5073649609</v>
+        <v>570449.0816096036</v>
       </c>
     </row>
   </sheetData>
@@ -6867,28 +6867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>991.9770257428468</v>
+        <v>1071.823967092859</v>
       </c>
       <c r="AB2" t="n">
-        <v>1357.266729559106</v>
+        <v>1466.516837312634</v>
       </c>
       <c r="AC2" t="n">
-        <v>1227.731097825803</v>
+        <v>1326.554528628823</v>
       </c>
       <c r="AD2" t="n">
-        <v>991977.0257428468</v>
+        <v>1071823.96709286</v>
       </c>
       <c r="AE2" t="n">
-        <v>1357266.729559106</v>
+        <v>1466516.837312634</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.384741401529939e-06</v>
+        <v>2.414868089750791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.27994791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1227731.097825803</v>
+        <v>1326554.528628823</v>
       </c>
     </row>
     <row r="3">
@@ -6973,28 +6973,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>552.2263024967557</v>
+        <v>612.154111805138</v>
       </c>
       <c r="AB3" t="n">
-        <v>755.5803895811088</v>
+        <v>837.5762621051921</v>
       </c>
       <c r="AC3" t="n">
-        <v>683.4688576632244</v>
+        <v>757.6391591955388</v>
       </c>
       <c r="AD3" t="n">
-        <v>552226.3024967557</v>
+        <v>612154.1118051379</v>
       </c>
       <c r="AE3" t="n">
-        <v>755580.3895811088</v>
+        <v>837576.2621051921</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.946847737244634e-06</v>
+        <v>3.39513245655922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.86805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>683468.8576632245</v>
+        <v>757639.1591955388</v>
       </c>
     </row>
     <row r="4">
@@ -7079,28 +7079,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.719953215142</v>
+        <v>496.7309116842702</v>
       </c>
       <c r="AB4" t="n">
-        <v>611.2219478823807</v>
+        <v>679.6491475876148</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.8877830318772</v>
+        <v>614.7843868354216</v>
       </c>
       <c r="AD4" t="n">
-        <v>446719.953215142</v>
+        <v>496730.9116842701</v>
       </c>
       <c r="AE4" t="n">
-        <v>611221.9478823807</v>
+        <v>679649.1475876148</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.159892376192875e-06</v>
+        <v>3.766663703996586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.796006944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>552887.7830318772</v>
+        <v>614784.3868354217</v>
       </c>
     </row>
     <row r="5">
@@ -7185,28 +7185,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>427.5308107559938</v>
+        <v>477.541769225122</v>
       </c>
       <c r="AB5" t="n">
-        <v>584.9665166045564</v>
+        <v>653.3937163097905</v>
       </c>
       <c r="AC5" t="n">
-        <v>529.1381332654794</v>
+        <v>591.0347370690238</v>
       </c>
       <c r="AD5" t="n">
-        <v>427530.8107559938</v>
+        <v>477541.7692251221</v>
       </c>
       <c r="AE5" t="n">
-        <v>584966.5166045565</v>
+        <v>653393.7163097905</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.204353866060334e-06</v>
+        <v>3.844200659983516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.598524305555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>529138.1332654794</v>
+        <v>591034.7370690238</v>
       </c>
     </row>
   </sheetData>
@@ -7482,28 +7482,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1439.057018828903</v>
+        <v>1532.008595397527</v>
       </c>
       <c r="AB2" t="n">
-        <v>1968.981299876709</v>
+        <v>2096.161747672043</v>
       </c>
       <c r="AC2" t="n">
-        <v>1781.064488099086</v>
+        <v>1896.107012455712</v>
       </c>
       <c r="AD2" t="n">
-        <v>1439057.018828903</v>
+        <v>1532008.595397527</v>
       </c>
       <c r="AE2" t="n">
-        <v>1968981.299876709</v>
+        <v>2096161.747672042</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.123984453215874e-06</v>
+        <v>1.910699076847639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.17057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1781064.488099086</v>
+        <v>1896107.012455713</v>
       </c>
     </row>
     <row r="3">
@@ -7588,28 +7588,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.8244078829805</v>
+        <v>764.8489598260767</v>
       </c>
       <c r="AB3" t="n">
-        <v>961.6353612900469</v>
+        <v>1046.500089588702</v>
       </c>
       <c r="AC3" t="n">
-        <v>869.8582320722302</v>
+        <v>946.6235898104561</v>
       </c>
       <c r="AD3" t="n">
-        <v>702824.4078829805</v>
+        <v>764848.9598260766</v>
       </c>
       <c r="AE3" t="n">
-        <v>961635.3612900469</v>
+        <v>1046500.089588702</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.732138814488668e-06</v>
+        <v>2.944521184742594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.79036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>869858.2320722302</v>
+        <v>946623.5898104561</v>
       </c>
     </row>
     <row r="4">
@@ -7694,28 +7694,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>565.8115908718941</v>
+        <v>617.4134661451201</v>
       </c>
       <c r="AB4" t="n">
-        <v>774.1683804765968</v>
+        <v>844.7723427394936</v>
       </c>
       <c r="AC4" t="n">
-        <v>700.2828367960559</v>
+        <v>764.1484559938652</v>
       </c>
       <c r="AD4" t="n">
-        <v>565811.590871894</v>
+        <v>617413.4661451201</v>
       </c>
       <c r="AE4" t="n">
-        <v>774168.3804765968</v>
+        <v>844772.3427394936</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.96563169135617e-06</v>
+        <v>3.341443600355003e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>700282.8367960559</v>
+        <v>764148.4559938653</v>
       </c>
     </row>
     <row r="5">
@@ -7800,28 +7800,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.8450235428156</v>
+        <v>544.5321501620625</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.332303999191</v>
+        <v>745.0529109147373</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.9749753368404</v>
+        <v>673.9461067853618</v>
       </c>
       <c r="AD5" t="n">
-        <v>492845.0235428156</v>
+        <v>544532.1501620625</v>
       </c>
       <c r="AE5" t="n">
-        <v>674332.303999191</v>
+        <v>745052.9109147373</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.094001011810533e-06</v>
+        <v>3.559662937273715e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.752604166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>609974.9753368404</v>
+        <v>673946.1067853619</v>
       </c>
     </row>
     <row r="6">
@@ -7906,28 +7906,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>460.1977100768972</v>
+        <v>511.7142444955517</v>
       </c>
       <c r="AB6" t="n">
-        <v>629.6628094173024</v>
+        <v>700.1500045580015</v>
       </c>
       <c r="AC6" t="n">
-        <v>569.5686746238176</v>
+        <v>633.3286707896881</v>
       </c>
       <c r="AD6" t="n">
-        <v>460197.7100768972</v>
+        <v>511714.2444955517</v>
       </c>
       <c r="AE6" t="n">
-        <v>629662.8094173024</v>
+        <v>700150.0045580014</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.153480051786454e-06</v>
+        <v>3.660773363177399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.483506944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>569568.6746238177</v>
+        <v>633328.6707896881</v>
       </c>
     </row>
     <row r="7">
@@ -8012,28 +8012,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>462.3619406932698</v>
+        <v>513.8784751119244</v>
       </c>
       <c r="AB7" t="n">
-        <v>632.6240052257397</v>
+        <v>703.1112003664389</v>
       </c>
       <c r="AC7" t="n">
-        <v>572.2472580603622</v>
+        <v>636.0072542262328</v>
       </c>
       <c r="AD7" t="n">
-        <v>462361.9406932698</v>
+        <v>513878.4751119244</v>
       </c>
       <c r="AE7" t="n">
-        <v>632624.0052257397</v>
+        <v>703111.2003664388</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.153009489761328e-06</v>
+        <v>3.659973438921832e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.485677083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>572247.2580603622</v>
+        <v>636007.2542262328</v>
       </c>
     </row>
   </sheetData>
@@ -8309,28 +8309,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>666.1303211763249</v>
+        <v>733.302004849831</v>
       </c>
       <c r="AB2" t="n">
-        <v>911.428893029146</v>
+        <v>1003.336154036774</v>
       </c>
       <c r="AC2" t="n">
-        <v>824.4433986769292</v>
+        <v>907.5791596866405</v>
       </c>
       <c r="AD2" t="n">
-        <v>666130.3211763249</v>
+        <v>733302.004849831</v>
       </c>
       <c r="AE2" t="n">
-        <v>911428.893029146</v>
+        <v>1003336.154036774</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.702045135316447e-06</v>
+        <v>3.069190150838453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.98177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>824443.3986769292</v>
+        <v>907579.1596866405</v>
       </c>
     </row>
     <row r="3">
@@ -8415,28 +8415,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>419.057721277116</v>
+        <v>467.0132017368653</v>
       </c>
       <c r="AB3" t="n">
-        <v>573.37326177323</v>
+        <v>638.9880657847422</v>
       </c>
       <c r="AC3" t="n">
-        <v>518.6513224040192</v>
+        <v>578.0039416116285</v>
       </c>
       <c r="AD3" t="n">
-        <v>419057.721277116</v>
+        <v>467013.2017368653</v>
       </c>
       <c r="AE3" t="n">
-        <v>573373.2617732299</v>
+        <v>638988.0657847421</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.207048656951285e-06</v>
+        <v>3.97983100435037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.01085069444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>518651.3224040192</v>
+        <v>578003.9416116285</v>
       </c>
     </row>
     <row r="4">
@@ -8521,28 +8521,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.6682474527623</v>
+        <v>443.7089792585323</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.3707518159899</v>
+        <v>607.1022004801514</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.7030870812933</v>
+        <v>549.1612185396148</v>
       </c>
       <c r="AD4" t="n">
-        <v>395668.2474527623</v>
+        <v>443708.9792585323</v>
       </c>
       <c r="AE4" t="n">
-        <v>541370.75181599</v>
+        <v>607102.2004801513</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.247774747405707e-06</v>
+        <v>4.053269782859396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>489703.0870812933</v>
+        <v>549161.2185396148</v>
       </c>
     </row>
   </sheetData>
@@ -8818,28 +8818,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.2356281090122</v>
+        <v>530.5753589052774</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.2383522949635</v>
+        <v>725.9566133870297</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.1805165671907</v>
+        <v>656.672333091877</v>
       </c>
       <c r="AD2" t="n">
-        <v>475235.6281090122</v>
+        <v>530575.3589052774</v>
       </c>
       <c r="AE2" t="n">
-        <v>650238.3522949636</v>
+        <v>725956.6133870297</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.009899760357893e-06</v>
+        <v>3.749830502965543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>588180.5165671906</v>
+        <v>656672.3330918771</v>
       </c>
     </row>
     <row r="3">
@@ -8924,28 +8924,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>380.3062746643759</v>
+        <v>426.4796258157366</v>
       </c>
       <c r="AB3" t="n">
-        <v>520.3518229245116</v>
+        <v>583.5282389942898</v>
       </c>
       <c r="AC3" t="n">
-        <v>470.6901752629657</v>
+        <v>527.8371228517015</v>
       </c>
       <c r="AD3" t="n">
-        <v>380306.2746643759</v>
+        <v>426479.6258157366</v>
       </c>
       <c r="AE3" t="n">
-        <v>520351.8229245116</v>
+        <v>583528.2389942899</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.260726256756311e-06</v>
+        <v>4.217792570376946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.18012152777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>470690.1752629657</v>
+        <v>527837.1228517015</v>
       </c>
     </row>
   </sheetData>
@@ -15594,28 +15594,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.2917940717691</v>
+        <v>421.0073890961535</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.5448364193451</v>
+        <v>576.0408832965109</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.5826625575898</v>
+        <v>521.0643498731486</v>
       </c>
       <c r="AD2" t="n">
-        <v>367291.7940717691</v>
+        <v>421007.3890961536</v>
       </c>
       <c r="AE2" t="n">
-        <v>502544.8364193451</v>
+        <v>576040.8832965109</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.227917996898935e-06</v>
+        <v>4.284368927273762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.68576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>454582.6625575898</v>
+        <v>521064.3498731486</v>
       </c>
     </row>
     <row r="3">
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.2510396945358</v>
+        <v>419.9666347189203</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.120830365572</v>
+        <v>574.6168772427377</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.2945616429838</v>
+        <v>519.7762489585425</v>
       </c>
       <c r="AD3" t="n">
-        <v>366251.0396945358</v>
+        <v>419966.6347189203</v>
       </c>
       <c r="AE3" t="n">
-        <v>501120.830365572</v>
+        <v>574616.8772427377</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.241193127525063e-06</v>
+        <v>4.309897495757543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.62282986111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>453294.5616429838</v>
+        <v>519776.2489585425</v>
       </c>
     </row>
   </sheetData>
@@ -15997,28 +15997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.0593197443708</v>
+        <v>416.3864688989661</v>
       </c>
       <c r="AB2" t="n">
-        <v>500.858510671669</v>
+        <v>569.7183364221077</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.0572773724989</v>
+        <v>515.345217998688</v>
       </c>
       <c r="AD2" t="n">
-        <v>366059.3197443708</v>
+        <v>416386.4688989662</v>
       </c>
       <c r="AE2" t="n">
-        <v>500858.510671669</v>
+        <v>569718.3364221076</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046333430181985e-06</v>
+        <v>4.220765944375255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.48697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>453057.2773724989</v>
+        <v>515345.217998688</v>
       </c>
     </row>
   </sheetData>
@@ -16294,28 +16294,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>901.0309379557154</v>
+        <v>980.227404862643</v>
       </c>
       <c r="AB2" t="n">
-        <v>1232.83027999053</v>
+        <v>1341.190379914122</v>
       </c>
       <c r="AC2" t="n">
-        <v>1115.170688356399</v>
+        <v>1213.189052427638</v>
       </c>
       <c r="AD2" t="n">
-        <v>901030.9379557155</v>
+        <v>980227.404862643</v>
       </c>
       <c r="AE2" t="n">
-        <v>1232830.279990531</v>
+        <v>1341190.379914122</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.456075455961228e-06</v>
+        <v>2.558267137185849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.67664930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1115170.688356399</v>
+        <v>1213189.052427638</v>
       </c>
     </row>
     <row r="3">
@@ -16400,28 +16400,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>517.3153912669698</v>
+        <v>576.6914062335225</v>
       </c>
       <c r="AB3" t="n">
-        <v>707.8137406758115</v>
+        <v>789.0546238379552</v>
       </c>
       <c r="AC3" t="n">
-        <v>640.2609906885356</v>
+        <v>713.74835798398</v>
       </c>
       <c r="AD3" t="n">
-        <v>517315.3912669698</v>
+        <v>576691.4062335225</v>
       </c>
       <c r="AE3" t="n">
-        <v>707813.7406758114</v>
+        <v>789054.6238379552</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.009415641748199e-06</v>
+        <v>3.530464015574007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.63585069444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>640260.9906885356</v>
+        <v>713748.35798398</v>
       </c>
     </row>
     <row r="4">
@@ -16506,28 +16506,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.5225226814823</v>
+        <v>471.0736525324192</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.7457117940473</v>
+        <v>644.5437536976651</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.7019105281132</v>
+        <v>583.0294024675993</v>
       </c>
       <c r="AD4" t="n">
-        <v>421522.5226814823</v>
+        <v>471073.6525324192</v>
       </c>
       <c r="AE4" t="n">
-        <v>576745.7117940474</v>
+        <v>644543.7536976652</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.208239958371066e-06</v>
+        <v>3.879790496703333e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.676649305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>521701.9105281133</v>
+        <v>583029.4024675993</v>
       </c>
     </row>
     <row r="5">
@@ -16612,28 +16612,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>420.2338250460523</v>
+        <v>469.7849548969893</v>
       </c>
       <c r="AB5" t="n">
-        <v>574.9824588359249</v>
+        <v>642.7805007395427</v>
       </c>
       <c r="AC5" t="n">
-        <v>520.106939957573</v>
+        <v>581.4344318970589</v>
       </c>
       <c r="AD5" t="n">
-        <v>420233.8250460523</v>
+        <v>469784.9548969893</v>
       </c>
       <c r="AE5" t="n">
-        <v>574982.458835925</v>
+        <v>642780.5007395428</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.216019612166612e-06</v>
+        <v>3.89345904153207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.644097222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>520106.939957573</v>
+        <v>581434.4318970589</v>
       </c>
     </row>
   </sheetData>
@@ -16909,28 +16909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1310.613324585936</v>
+        <v>1402.763893337084</v>
       </c>
       <c r="AB2" t="n">
-        <v>1793.238970877615</v>
+        <v>1919.323444439107</v>
       </c>
       <c r="AC2" t="n">
-        <v>1622.094760323758</v>
+        <v>1736.145908689211</v>
       </c>
       <c r="AD2" t="n">
-        <v>1310613.324585936</v>
+        <v>1402763.893337084</v>
       </c>
       <c r="AE2" t="n">
-        <v>1793238.970877615</v>
+        <v>1919323.444439107</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.184197383885269e-06</v>
+        <v>2.024845556650579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.38932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1622094.760323758</v>
+        <v>1736145.908689211</v>
       </c>
     </row>
     <row r="3">
@@ -17015,28 +17015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>665.7821898192534</v>
+        <v>727.3296304537467</v>
       </c>
       <c r="AB3" t="n">
-        <v>910.9525643479295</v>
+        <v>995.1644879054893</v>
       </c>
       <c r="AC3" t="n">
-        <v>824.0125301365166</v>
+        <v>900.1873859019197</v>
       </c>
       <c r="AD3" t="n">
-        <v>665782.1898192534</v>
+        <v>727329.6304537468</v>
       </c>
       <c r="AE3" t="n">
-        <v>910952.5643479296</v>
+        <v>995164.4879054893</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.783081083676913e-06</v>
+        <v>3.048869942260147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.54947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>824012.5301365166</v>
+        <v>900187.3859019197</v>
       </c>
     </row>
     <row r="4">
@@ -17121,28 +17121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>537.596907913328</v>
+        <v>588.8011904293854</v>
       </c>
       <c r="AB4" t="n">
-        <v>735.5638065087245</v>
+        <v>805.6237648207082</v>
       </c>
       <c r="AC4" t="n">
-        <v>665.3626291858175</v>
+        <v>728.7361634062744</v>
       </c>
       <c r="AD4" t="n">
-        <v>537596.907913328</v>
+        <v>588801.1904293854</v>
       </c>
       <c r="AE4" t="n">
-        <v>735563.8065087245</v>
+        <v>805623.7648207082</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.014150931401942e-06</v>
+        <v>3.443973630892583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.22352430555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>665362.6291858174</v>
+        <v>728736.1634062744</v>
       </c>
     </row>
     <row r="5">
@@ -17227,28 +17227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.7697301600442</v>
+        <v>518.0592640221221</v>
       </c>
       <c r="AB5" t="n">
-        <v>638.6549372321275</v>
+        <v>708.8315401967606</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.7026063805265</v>
+        <v>641.1816528516958</v>
       </c>
       <c r="AD5" t="n">
-        <v>466769.7301600442</v>
+        <v>518059.2640221221</v>
       </c>
       <c r="AE5" t="n">
-        <v>638654.9372321275</v>
+        <v>708831.5401967606</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.13798918654821e-06</v>
+        <v>3.65572324636089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.631076388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>577702.6063805266</v>
+        <v>641181.6528516959</v>
       </c>
     </row>
     <row r="6">
@@ -17333,28 +17333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>452.0685805503372</v>
+        <v>503.1875222118229</v>
       </c>
       <c r="AB6" t="n">
-        <v>618.5401757671794</v>
+        <v>688.4833669569653</v>
       </c>
       <c r="AC6" t="n">
-        <v>559.5075695185481</v>
+        <v>622.7754807070663</v>
       </c>
       <c r="AD6" t="n">
-        <v>452068.5805503372</v>
+        <v>503187.5222118229</v>
       </c>
       <c r="AE6" t="n">
-        <v>618540.1757671795</v>
+        <v>688483.3669569653</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.168070969599065e-06</v>
+        <v>3.707159742991888e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.498697916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>559507.5695185481</v>
+        <v>622775.4807070664</v>
       </c>
     </row>
     <row r="7">
@@ -17439,28 +17439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>453.8669255050594</v>
+        <v>504.985867166545</v>
       </c>
       <c r="AB7" t="n">
-        <v>621.0007506716103</v>
+        <v>690.9439418613964</v>
       </c>
       <c r="AC7" t="n">
-        <v>561.7333106075387</v>
+        <v>625.0012217960569</v>
       </c>
       <c r="AD7" t="n">
-        <v>453866.9255050594</v>
+        <v>504985.867166545</v>
       </c>
       <c r="AE7" t="n">
-        <v>621000.7506716102</v>
+        <v>690943.9418613964</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.168070969599065e-06</v>
+        <v>3.707159742991888e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.498697916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>561733.3106075387</v>
+        <v>625001.221796057</v>
       </c>
     </row>
   </sheetData>
@@ -17736,28 +17736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>387.5886664947711</v>
+        <v>452.6067533741776</v>
       </c>
       <c r="AB2" t="n">
-        <v>530.3159127033113</v>
+        <v>619.2765275672671</v>
       </c>
       <c r="AC2" t="n">
-        <v>479.7033062979647</v>
+        <v>560.1736449363117</v>
       </c>
       <c r="AD2" t="n">
-        <v>387588.6664947711</v>
+        <v>452606.7533741776</v>
       </c>
       <c r="AE2" t="n">
-        <v>530315.9127033113</v>
+        <v>619276.5275672671</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.817194201134946e-06</v>
+        <v>3.895084155347778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.56163194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>479703.3062979647</v>
+        <v>560173.6449363116</v>
       </c>
     </row>
   </sheetData>
@@ -18033,28 +18033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.2548697711785</v>
+        <v>599.731895887591</v>
       </c>
       <c r="AB2" t="n">
-        <v>730.9910824823183</v>
+        <v>820.5796382573161</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.226319522633</v>
+        <v>742.2646692727926</v>
       </c>
       <c r="AD2" t="n">
-        <v>534254.8697711785</v>
+        <v>599731.8958875911</v>
       </c>
       <c r="AE2" t="n">
-        <v>730991.0824823184</v>
+        <v>820579.6382573161</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.895635691940319e-06</v>
+        <v>3.492580873535277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.96397569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>661226.3195226331</v>
+        <v>742264.6692727926</v>
       </c>
     </row>
     <row r="3">
@@ -18139,28 +18139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.9209705581567</v>
+        <v>433.7269390875331</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.4023416661697</v>
+        <v>593.4443327416582</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.8769251984028</v>
+        <v>536.8068385291458</v>
       </c>
       <c r="AD3" t="n">
-        <v>386920.9705581567</v>
+        <v>433726.9390875332</v>
       </c>
       <c r="AE3" t="n">
-        <v>529402.3416661697</v>
+        <v>593444.3327416582</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.263517356712064e-06</v>
+        <v>4.170378021778974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.01953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>478876.9251984028</v>
+        <v>536806.8385291458</v>
       </c>
     </row>
     <row r="4">
@@ -18245,28 +18245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.1269048555284</v>
+        <v>435.9328733849048</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.4205982907864</v>
+        <v>596.4625893662749</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.6071236469159</v>
+        <v>539.5370369776589</v>
       </c>
       <c r="AD4" t="n">
-        <v>389126.9048555284</v>
+        <v>435932.8733849048</v>
       </c>
       <c r="AE4" t="n">
-        <v>532420.5982907864</v>
+        <v>596462.5893662749</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.263308333038898e-06</v>
+        <v>4.169992909762926e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.02170138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>481607.1236469158</v>
+        <v>539537.0369776589</v>
       </c>
     </row>
   </sheetData>
@@ -18542,28 +18542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>743.6968733127305</v>
+        <v>811.6932229990473</v>
       </c>
       <c r="AB2" t="n">
-        <v>1017.558871656945</v>
+        <v>1110.594477084997</v>
       </c>
       <c r="AC2" t="n">
-        <v>920.4444810988512</v>
+        <v>1004.600898921142</v>
       </c>
       <c r="AD2" t="n">
-        <v>743696.8733127306</v>
+        <v>811693.2229990473</v>
       </c>
       <c r="AE2" t="n">
-        <v>1017558.871656945</v>
+        <v>1110594.477084997</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.613783608572919e-06</v>
+        <v>2.882906645562548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.53081597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>920444.4810988512</v>
+        <v>1004600.898921142</v>
       </c>
     </row>
     <row r="3">
@@ -18648,28 +18648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.1736504163327</v>
+        <v>498.6572202748239</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.9474487594169</v>
+        <v>682.2848079839476</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.1622887374913</v>
+        <v>617.1685035027012</v>
       </c>
       <c r="AD3" t="n">
-        <v>450173.6504163327</v>
+        <v>498657.220274824</v>
       </c>
       <c r="AE3" t="n">
-        <v>615947.4487594169</v>
+        <v>682284.8079839477</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.141649228386708e-06</v>
+        <v>3.825900052634572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>557162.2887374912</v>
+        <v>617168.5035027013</v>
       </c>
     </row>
     <row r="4">
@@ -18754,28 +18754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>403.7137375474207</v>
+        <v>452.2825587519325</v>
       </c>
       <c r="AB4" t="n">
-        <v>552.378946305474</v>
+        <v>618.8329501826539</v>
       </c>
       <c r="AC4" t="n">
-        <v>499.6606749387989</v>
+        <v>559.7724019547212</v>
       </c>
       <c r="AD4" t="n">
-        <v>403713.7375474207</v>
+        <v>452282.5587519325</v>
       </c>
       <c r="AE4" t="n">
-        <v>552378.9463054739</v>
+        <v>618832.950182654</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.236536243156895e-06</v>
+        <v>3.995408779830325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.763454861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>499660.6749387989</v>
+        <v>559772.4019547212</v>
       </c>
     </row>
   </sheetData>
